--- a/testData/Zigwheels.xlsx
+++ b/testData/Zigwheels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303657\eclipse-workspace\IdentifyNewBikes\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A609A-0766-44D9-8867-A01CF4B0180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826BA91-371D-4FED-809B-1E260DFC108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="14400" windowHeight="7270" xr2:uid="{66BD092F-2648-46C0-A01F-C178B2B2D090}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66BD092F-2648-46C0-A01F-C178B2B2D090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,7 +423,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,27 +433,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -456,9 +462,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{4FEA8E5A-7F2A-470F-AB56-0FD667141542}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{9E505534-636C-49FF-B1E3-66836EC029D6}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{25152DAB-99AE-42EE-BB08-75CE0750AE09}"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="mailto:abc@abc" display="mailto:abc@abc" xr:uid="{EC95E333-D345-4CDA-AEB1-65BCAE1FC958}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:praveen.mylsamy@gmail" display="mailto:praveen.mylsamy@gmail" xr:uid="{34385571-1819-499A-A1E5-066CA27C0A2F}"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="mailto:praveenmylsamy@gmail.c" display="mailto:praveenmylsamy@gmail.c" xr:uid="{2E4600A3-D9EB-4115-A36A-344EAB3FC3D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
